--- a/input/data/fengxian/faq/file/qa100.xlsx
+++ b/input/data/fengxian/faq/file/qa100.xlsx
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="89.25" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="96" customFormat="1" s="3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="125.25" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="84" customFormat="1" s="3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="463.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="380.25" customFormat="1" s="3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="244.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="193.5" customFormat="1" s="3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
